--- a/com/hennessy/pc_scand/resources/case.xlsx
+++ b/com/hennessy/pc_scand/resources/case.xlsx
@@ -1,212 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13370" windowHeight="6860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="13370" windowHeight="6860"/>
   </bookViews>
   <sheets>
-    <sheet name="Case" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Case" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>scand_way</t>
+  </si>
+  <si>
+    <t>expected_bit_depth</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>expected_dpi</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>preservation_method</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>玻璃面板</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>输稿器（双面）</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF067D17"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF067D17"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <color rgb="FF067D17"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -506,176 +558,174 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -729,74 +779,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1085,218 +1072,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col width="17.7363636363636" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.3727272727273" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.463636363636359" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.7363636363636" customWidth="1" style="1" min="4" max="4"/>
-    <col width="11.7363636363636" customWidth="1" style="1" min="5" max="5"/>
-    <col width="22.9090909090909" customWidth="1" style="1" min="6" max="6"/>
-    <col width="10.2818181818182" customWidth="1" style="1" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="17.7363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7363636363636" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7363636363636" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.9090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.2818181818182" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>scand_way</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>expected_bit_depth</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>expected_dpi</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>scaling</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>preservation_method</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" s="8">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>玻璃面板</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.04236111111111111</v>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+    <row r="2" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" s="8">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>玻璃面板</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.04305555555555556</v>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+    <row r="3" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" s="8">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>输稿器（双面）</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0.04236111111111111</v>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+    <row r="4" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0423611111111111</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" ht="14.5" customHeight="1" s="8">
-      <c r="A5" s="4" t="n"/>
-      <c r="E5" s="7" t="n"/>
+    <row r="5" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
-    <row r="6" ht="14.5" customHeight="1" s="8">
-      <c r="A6" s="6" t="n"/>
+    <row r="6" ht="14.5" customHeight="1" spans="1:7">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="G7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/com/hennessy/pc_scand/resources/case.xlsx
+++ b/com/hennessy/pc_scand/resources/case.xlsx
@@ -1,267 +1,220 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13370" windowHeight="6860"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13370" windowHeight="6860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Case" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Case" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>scand_way</t>
-  </si>
-  <si>
-    <t>expected_bit_depth</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>expected_dpi</t>
-  </si>
-  <si>
-    <t>scaling</t>
-  </si>
-  <si>
-    <t>preservation_method</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>玻璃面板</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>输稿器（双面）</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="25">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
+      <charset val="134"/>
       <color rgb="FF067D17"/>
+      <sz val="9.800000000000001"/>
+    </font>
+    <font>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="Microsoft YaHei"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="34">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -558,174 +511,178 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -779,11 +736,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1072,175 +1092,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.7363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7363636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7363636363636" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.9090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.2818181818182" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="9" customWidth="1" style="1" min="1" max="1"/>
+    <col width="17.7363636363636" customWidth="1" style="1" min="2" max="2"/>
+    <col width="23.3727272727273" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.463636363636359" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.7363636363636" customWidth="1" style="1" min="5" max="5"/>
+    <col width="11.7363636363636" customWidth="1" style="1" min="6" max="6"/>
+    <col width="22.9090909090909" customWidth="1" style="1" min="7" max="7"/>
+    <col width="10.2818181818182" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="1" ht="39" customHeight="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Scanning_mode</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Expected_bit_depth</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Paper_size</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Expected_dpi</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Scaling_ratio</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Preservation_method</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.0423611111111111</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4"/>
+    <row r="2" ht="22.5" customHeight="1" s="8">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>玻璃面板</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.04236111111111111</v>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.0423611111111111</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4"/>
+    <row r="3" ht="22.5" customHeight="1" s="8">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>玻璃面板</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.04236111111111111</v>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.0423611111111111</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4"/>
+    <row r="4" ht="22.5" customHeight="1" s="8">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>输稿器（双面）</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.04236111111111111</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n"/>
     </row>
-    <row r="5" ht="14.5" customHeight="1" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+    <row r="5" ht="14.5" customHeight="1" s="8">
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
     </row>
-    <row r="6" ht="14.5" customHeight="1" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+    <row r="6" ht="14.5" customHeight="1" s="8">
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="G7"/>
+    <row r="7" ht="15" customHeight="1" s="8">
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="6" t="n"/>
+      <c r="H7" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>